--- a/biology/Médecine/Karl_Stern/Karl_Stern.xlsx
+++ b/biology/Médecine/Karl_Stern/Karl_Stern.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Stern (1906-1975) est un psychothérapeute[réf. souhaitée] et neurologue germano-canadien.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Stern est né en 1906, dans la petite ville de Cham en Bavière. Sa famille est de tradition juive[réf. souhaitée].
 Il a étudié la médecine à l'université de Berlin, de Munich et de Francfort, devenant ainsi un spécialiste dans son domaine. Il a suivi une cure de psychologie analytique. Quittant l'Allemagne pour l'Angleterre en 1936, il y a trouvé du travail dans la recherche en neurologie.
-En 1943, après beaucoup d'introspection, et, finalement, influencée par la rencontre avec Jacques Maritain et de Dorothy Day, il a reçu le baptême dans la religion catholique[réf. nécessaire]. En 1951, il raconte le récit de cette conversion au catholicisme dans son autobiographie qui paraît sous le titre The Pillar of Love[1]. 
+En 1943, après beaucoup d'introspection, et, finalement, influencée par la rencontre avec Jacques Maritain et de Dorothy Day, il a reçu le baptême dans la religion catholique[réf. nécessaire]. En 1951, il raconte le récit de cette conversion au catholicisme dans son autobiographie qui paraît sous le titre The Pillar of Love. 
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Buisson ardent. Paris, Seuil, 1951.
 La Troisième Révolution : essai sur la psychanalyse et la religion. Paris, Seuil, 1955.
